--- a/Curation/Media/KBASE_MEDIAS/MMB_pyruvate.xlsx
+++ b/Curation/Media/KBASE_MEDIAS/MMB_pyruvate.xlsx
@@ -624,7 +624,7 @@
         <v>-100</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -644,7 +644,7 @@
         <v>-100</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0.001</v>
@@ -684,7 +684,7 @@
         <v>-100</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0.001</v>
@@ -704,7 +704,7 @@
         <v>-100</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>0.001</v>
@@ -724,7 +724,7 @@
         <v>-100</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>0.001</v>
@@ -744,7 +744,7 @@
         <v>-100</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>0.001</v>
@@ -764,7 +764,7 @@
         <v>-100</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>0.001</v>
@@ -784,7 +784,7 @@
         <v>-100</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>0.001</v>
@@ -804,7 +804,7 @@
         <v>-100</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>0.001</v>
@@ -824,7 +824,7 @@
         <v>-100</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>0.001</v>
@@ -844,7 +844,7 @@
         <v>-100</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>0.001</v>
@@ -864,7 +864,7 @@
         <v>-100</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>0.001</v>
@@ -884,7 +884,7 @@
         <v>-100</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>0.001</v>
@@ -904,7 +904,7 @@
         <v>-100</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>0.001</v>
@@ -924,7 +924,7 @@
         <v>-100</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F17">
         <v>0.001</v>
@@ -964,7 +964,7 @@
         <v>-100</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>0.001</v>
@@ -984,7 +984,7 @@
         <v>-100</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>0.001</v>
@@ -1004,7 +1004,7 @@
         <v>-100</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F21">
         <v>0.001</v>
@@ -1024,7 +1024,7 @@
         <v>-100</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <v>0.001</v>
@@ -1064,7 +1064,7 @@
         <v>-100</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F24">
         <v>0.001</v>
